--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/金融业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/金融业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,232 +523,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.060084539440165</v>
+        <v>0.053901763734856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.035039088635576</v>
+        <v>0.030557628292538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.020666431463588</v>
+        <v>0.024818170979433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.047611150307845</v>
+        <v>0.051988617287001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003067352818426</v>
+        <v>0.004116204231816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.090588992914917</v>
+        <v>0.120447739964411</v>
       </c>
       <c r="H2" t="n">
-        <v>0.064533595070046</v>
+        <v>0.068137891061804</v>
       </c>
       <c r="I2" t="n">
-        <v>0.083805627242384</v>
+        <v>0.087942936376237</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03124809380222</v>
+        <v>0.033681209290879</v>
       </c>
       <c r="K2" t="n">
-        <v>0.039269346690593</v>
+        <v>0.04129234922072</v>
       </c>
       <c r="L2" t="n">
-        <v>0.015920006998179</v>
+        <v>0.017970978465604</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07727874805582199</v>
+        <v>0.09386771824752101</v>
       </c>
       <c r="N2" t="n">
-        <v>0.036427963152403</v>
+        <v>0.046532192742527</v>
       </c>
       <c r="O2" t="n">
-        <v>0.040467357159889</v>
+        <v>0.040657239027752</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08407575194983601</v>
+        <v>0.107792056496571</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005183264432706</v>
+        <v>0.006645729640502</v>
       </c>
       <c r="R2" t="n">
-        <v>0.018211572411702</v>
+        <v>0.022627882998965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.053901763734856</v>
+        <v>0.07615516308213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.030557628292538</v>
+        <v>0.04305500909344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.024818170979433</v>
+        <v>0.025888957749987</v>
       </c>
       <c r="E3" t="n">
-        <v>0.051988617287001</v>
+        <v>0.051584690453861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004116204231816</v>
+        <v>0.014640666020683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.120447739964411</v>
+        <v>0.203071217004151</v>
       </c>
       <c r="H3" t="n">
-        <v>0.068137891061804</v>
+        <v>0.08174743538546</v>
       </c>
       <c r="I3" t="n">
-        <v>0.087942936376237</v>
+        <v>0.069856797520262</v>
       </c>
       <c r="J3" t="n">
-        <v>0.033681209290879</v>
+        <v>0.032726212282246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04129234922072</v>
+        <v>0.030502453602058</v>
       </c>
       <c r="L3" t="n">
-        <v>0.017970978465604</v>
+        <v>0.024337713517254</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09386771824752101</v>
+        <v>0.088551902546742</v>
       </c>
       <c r="N3" t="n">
-        <v>0.046532192742527</v>
+        <v>0.042100883968939</v>
       </c>
       <c r="O3" t="n">
-        <v>0.040657239027752</v>
+        <v>0.0441336964855</v>
       </c>
       <c r="P3" t="n">
-        <v>0.107792056496571</v>
+        <v>0.10638490084439</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006645729640502</v>
+        <v>0.007682273249675</v>
       </c>
       <c r="R3" t="n">
-        <v>0.022627882998965</v>
+        <v>0.024046309169205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07615516308213</v>
+        <v>0.062459107319439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04305500909344</v>
+        <v>0.037401232956003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.025888957749987</v>
+        <v>0.025748950494545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.051584690453861</v>
+        <v>0.043597210687905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.014640666020683</v>
+        <v>0.0091730487637</v>
       </c>
       <c r="G4" t="n">
-        <v>0.203071217004151</v>
+        <v>0.180783233424021</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08174743538546</v>
+        <v>0.075151073628223</v>
       </c>
       <c r="I4" t="n">
-        <v>0.069856797520262</v>
+        <v>0.065420336008821</v>
       </c>
       <c r="J4" t="n">
-        <v>0.032726212282246</v>
+        <v>0.020270045108456</v>
       </c>
       <c r="K4" t="n">
-        <v>0.030502453602058</v>
+        <v>0.022736161239365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.024337713517254</v>
+        <v>0.021795565996672</v>
       </c>
       <c r="M4" t="n">
-        <v>0.088551902546742</v>
+        <v>0.083012953155272</v>
       </c>
       <c r="N4" t="n">
-        <v>0.042100883968939</v>
+        <v>0.021628884113974</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0441336964855</v>
+        <v>0.032646663804651</v>
       </c>
       <c r="P4" t="n">
-        <v>0.10638490084439</v>
+        <v>0.109698962801837</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.007682273249675</v>
+        <v>0.005901720817967</v>
       </c>
       <c r="R4" t="n">
-        <v>0.024046309169205</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.062459107319439</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.037401232956003</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.025748950494545</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.043597210687905</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0091730487637</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.180783233424021</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.075151073628223</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.065420336008821</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.020270045108456</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.022736161239365</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.021795565996672</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.083012953155272</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.021628884113974</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.032646663804651</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.109698962801837</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.005901720817967</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.025969386038847</v>
       </c>
     </row>
